--- a/prueba 1 excel.xlsx
+++ b/prueba 1 excel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1271b18ca4bd4293/Documents/Ceutec/Introduccion al desarrollo web/Pruebas-Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C34DB51-0F7E-46B3-937D-794CEF541920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{3C34DB51-0F7E-46B3-937D-794CEF541920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D0EFB2-34DB-4EC8-93E9-4A55C8A7A227}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{0808CE0E-374F-4C3C-9AB7-E45D5C2AC4AC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{0808CE0E-374F-4C3C-9AB7-E45D5C2AC4AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba de escritorio frutas" sheetId="1" r:id="rId1"/>
+    <sheet name="prueba 2 tiro al blanco" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Proceso/SubProcesoLinea(inst)</t>
   </si>
@@ -88,6 +89,15 @@
   </si>
   <si>
     <t>1:SIN_TITULO24(1)</t>
+  </si>
+  <si>
+    <t>1:SIN_TITULO2(1)</t>
+  </si>
+  <si>
+    <t>1:SIN_TITULO5(1)</t>
+  </si>
+  <si>
+    <t>1:SIN_TITULO6(1)</t>
   </si>
 </sst>
 </file>
@@ -441,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA88E6D4-5616-4BEF-AE84-452CCAECF613}">
   <dimension ref="A6:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -543,4 +553,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB057172-C3B5-4BDA-8C12-E4F01DF8FAD8}">
+  <dimension ref="A8:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/prueba 1 excel.xlsx
+++ b/prueba 1 excel.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1271b18ca4bd4293/Documents/Ceutec/Introduccion al desarrollo web/Pruebas-Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{3C34DB51-0F7E-46B3-937D-794CEF541920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D0EFB2-34DB-4EC8-93E9-4A55C8A7A227}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{3C34DB51-0F7E-46B3-937D-794CEF541920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92EDDEA4-193C-4783-B60B-5C35403A0528}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{0808CE0E-374F-4C3C-9AB7-E45D5C2AC4AC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{0808CE0E-374F-4C3C-9AB7-E45D5C2AC4AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba de escritorio frutas" sheetId="1" r:id="rId1"/>
     <sheet name="prueba 2 tiro al blanco" sheetId="2" r:id="rId2"/>
+    <sheet name="comida perro" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Proceso/SubProcesoLinea(inst)</t>
   </si>
@@ -150,6 +151,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB057172-C3B5-4BDA-8C12-E4F01DF8FAD8}">
   <dimension ref="A8:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -608,4 +613,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66953788-4C24-4EB1-B420-65683E5B72C5}">
+  <dimension ref="A7:A17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>